--- a/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
+++ b/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Coverage.paymentBy` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Coverage.paymentBy` is mapped to FHIR R4 structure `Coverage`, but has no target element specified.</t>
+Element `Coverage.paymentBy` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Coverage</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,8 @@
   </si>
   <si>
     <t>Element `Coverage.paymentBy.party` is part of an existing definition because parent element `Coverage.paymentBy` requires a cross-version extension.
-Element `Coverage.paymentBy.party` is mapped to FHIR R4 structure `Coverage`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Coverage.paymentBy.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Coverage.paymentBy.party` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Extension.extension:party.id</t>
@@ -422,7 +423,7 @@
   </si>
   <si>
     <t>Element `Coverage.paymentBy.responsibility` is part of an existing definition because parent element `Coverage.paymentBy` requires a cross-version extension.
-Element `Coverage.paymentBy.responsibility` is mapped to FHIR R4 structure `Coverage`, but has no target element specified.</t>
+Element `Coverage.paymentBy.responsibility` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Extension.extension:responsibility.id</t>
@@ -784,7 +785,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="129.15234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="193.78515625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
+++ b/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Coverage.paymentBy` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Coverage.paymentBy` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+Element `Coverage.paymentBy` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,7 @@
   <si>
     <t>Element `Coverage.paymentBy.party` is part of an existing definition because parent element `Coverage.paymentBy` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Coverage.paymentBy.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Coverage.paymentBy.party` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+Element `Coverage.paymentBy.party` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Extension.extension:party.id</t>
@@ -387,6 +387,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy.party</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,7 +426,7 @@
   </si>
   <si>
     <t>Element `Coverage.paymentBy.responsibility` is part of an existing definition because parent element `Coverage.paymentBy` requires a cross-version extension.
-Element `Coverage.paymentBy.responsibility` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+Element `Coverage.paymentBy.responsibility` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Extension.extension:responsibility.id</t>
@@ -433,6 +436,9 @@
   </si>
   <si>
     <t>Extension.extension:responsibility.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy.responsibility</t>
   </si>
   <si>
     <t>Extension.extension:responsibility.value[x]</t>
@@ -1591,7 +1597,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1633,7 +1639,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1648,15 +1654,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1679,7 +1685,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1736,7 +1742,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1748,21 +1754,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1787,14 +1793,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1863,7 +1869,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2114,7 +2120,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2156,7 +2162,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2171,15 +2177,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2205,10 +2211,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2259,7 +2265,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2271,18 +2277,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2364,7 +2370,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2379,15 +2385,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2410,13 +2416,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2467,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2479,10 +2485,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
+++ b/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -402,7 +402,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
+++ b/StructureDefinition-ext-R5-Coverage.paymentBy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>The list of parties providing non-insurance payment for the treatment costs.</t>
   </si>
   <si>
-    <t>Element `Coverage.paymentBy.party` is part of an existing definition because parent element `Coverage.paymentBy` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Coverage.paymentBy.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Coverage.paymentBy.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Coverage.paymentBy.party` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
@@ -387,9 +386,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy.party</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -402,7 +398,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -425,8 +421,7 @@
     <t>Description of the financial responsibility.</t>
   </si>
   <si>
-    <t>Element `Coverage.paymentBy.responsibility` is part of an existing definition because parent element `Coverage.paymentBy` requires a cross-version extension.
-Element `Coverage.paymentBy.responsibility` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+    <t>Element `Coverage.paymentBy.responsibility` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Extension.extension:responsibility.id</t>
@@ -436,9 +431,6 @@
   </si>
   <si>
     <t>Extension.extension:responsibility.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy.responsibility</t>
   </si>
   <si>
     <t>Extension.extension:responsibility.value[x]</t>
@@ -1597,72 +1589,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1685,7 +1677,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1742,7 +1734,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1754,21 +1746,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1793,14 +1785,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1869,7 +1861,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1972,7 +1964,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2077,7 +2069,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2120,7 +2112,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2162,30 +2154,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2211,10 +2203,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2265,7 +2257,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2277,18 +2269,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2370,30 +2362,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2416,13 +2408,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2473,7 +2465,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2485,10 +2477,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
